--- a/data/import/ExerciseError.xlsx
+++ b/data/import/ExerciseError.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\svNam4\HK2\4KidStudy\4kidstudy-backend\data\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D7D018-89B2-4129-913F-9D82136B3BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1005E5EA-1CA8-4B30-B519-C514E50D0928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{63998D71-9BE4-4E89-BA80-C31794CAC3F5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>type</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>optF3</t>
+  </si>
+  <si>
+    <t>Bill|</t>
   </si>
 </sst>
 </file>
@@ -532,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B5086D5-6A92-4DE7-81D8-53D58AE216AB}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,11 +734,29 @@
         <v>34</v>
       </c>
     </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J8" r:id="rId1" display="https://res.cloudinary.com/dz1x6r3cl/image/upload/v1756991132/g1-u2-cake_wjco9d.png|https://res.cloudinary.com/dz1x6r3cl/image/upload/v1756991132/g1-u2-cake_wjco9d.png" xr:uid="{790ABD97-6BD1-49A5-BE7C-2F02453BFA1C}"/>
+    <hyperlink ref="J9" r:id="rId2" display="https://res.cloudinary.com/dz1x6r3cl/image/upload/v1756991132/g1-u2-cake_wjco9d.png|https://res.cloudinary.com/dz1x6r3cl/image/upload/v1756991132/g1-u2-cake_wjco9d.png" xr:uid="{FFB70064-CBC7-4928-93E9-10AA82D6E7CD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>